--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2044419.769607725</v>
+        <v>-2046835.28910787</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>313.8540538188618</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>230.388948101618</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>194.198561611848</v>
       </c>
     </row>
     <row r="3">
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>168.7756050755994</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>277.2293093982381</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>117.6117944572885</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>173.6677896396943</v>
       </c>
       <c r="U7" t="n">
-        <v>223.8243835520302</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>169.6334628786188</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>134.4744101939905</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>160.1036732006758</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>146.6470461191482</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,16 +1585,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>225.5066945206958</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>12.07826384260702</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873211</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.9718139446409</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1822,16 +1822,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>49.23990673980236</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734111903</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>82.47617105277276</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>50.49986661816597</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>142.4180747895724</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2254,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>117.3426518978745</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>49.71226836029105</v>
+        <v>115.9413444565697</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128501</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957293</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,22 +3661,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124554</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,16 +4141,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
         <v>49.37728379124554</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1881.118241157406</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="C2" t="n">
-        <v>1881.118241157406</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="D2" t="n">
-        <v>1564.093944370677</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E2" t="n">
-        <v>1178.305691772433</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F2" t="n">
-        <v>767.3197869828255</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>1881.118241157406</v>
+        <v>1332.189422643001</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4513,16 +4513,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>343.360151857325</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2523.320609167617</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2523.320609167617</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2170.551953897502</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X5" t="n">
-        <v>2170.551953897502</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1780.41262192169</v>
+        <v>1597.808290699805</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="U7" t="n">
-        <v>274.7355609638946</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.375564375168</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>785.4130474347567</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341316</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X8" t="n">
-        <v>1540.97540443929</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1540.97540443929</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C10" t="n">
         <v>190.2718927217162</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>580.0006547931532</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>359.2080756496231</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,25 +5042,25 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>1770.231306037952</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,16 +5069,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5109,10 +5109,10 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,7 +5121,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5130,10 +5130,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>708.1835515663147</v>
+        <v>802.8431224204016</v>
       </c>
       <c r="C13" t="n">
-        <v>708.1835515663147</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>936.173102464332</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W13" t="n">
-        <v>936.173102464332</v>
+        <v>1433.273717292189</v>
       </c>
       <c r="X13" t="n">
-        <v>708.1835515663147</v>
+        <v>1205.284166394172</v>
       </c>
       <c r="Y13" t="n">
-        <v>708.1835515663147</v>
+        <v>984.4915872506414</v>
       </c>
     </row>
     <row r="14">
@@ -5270,34 +5270,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1079.910504880668</v>
+        <v>753.1470291944245</v>
       </c>
       <c r="L14" t="n">
-        <v>1530.944718129077</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M14" t="n">
-        <v>2064.476622801002</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N14" t="n">
-        <v>3044.228895027648</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>510.7061876676659</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="C16" t="n">
-        <v>510.7061876676659</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D16" t="n">
-        <v>360.5895482553301</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E16" t="n">
-        <v>360.5895482553301</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1877.584058079814</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1685.89817390664</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1464.131558476166</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1175.02869160181</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>920.3442033959229</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3442033959229</v>
+        <v>1204.050820091546</v>
       </c>
       <c r="X16" t="n">
-        <v>692.3546524979056</v>
+        <v>1204.050820091546</v>
       </c>
       <c r="Y16" t="n">
-        <v>692.3546524979056</v>
+        <v>983.2582409480156</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5492,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176198</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366029</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195858</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330834</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,31 +5595,31 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549554</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>812.5159046014979</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C19" t="n">
-        <v>643.5797216735911</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D19" t="n">
-        <v>493.4630822612553</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E19" t="n">
-        <v>493.4630822612553</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
-        <v>346.5731347633449</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>178.8702981380639</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,16 +5674,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1577.410141987876</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.725653781989</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1033.308483745028</v>
+        <v>858.2631878973651</v>
       </c>
       <c r="X19" t="n">
-        <v>1033.308483745028</v>
+        <v>630.2736369993478</v>
       </c>
       <c r="Y19" t="n">
-        <v>812.5159046014979</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,43 +5735,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2274.668463554308</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3254.420735780954</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5850,19 +5850,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>968.1854134651288</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="C22" t="n">
-        <v>799.2492305372219</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D22" t="n">
-        <v>655.3925893356336</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E22" t="n">
-        <v>507.4794957532405</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
         <v>192.8867116300491</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V22" t="n">
-        <v>1667.240599230347</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W22" t="n">
-        <v>1377.823429193386</v>
+        <v>1361.364431258369</v>
       </c>
       <c r="X22" t="n">
-        <v>1149.833878295369</v>
+        <v>1133.374880360351</v>
       </c>
       <c r="Y22" t="n">
-        <v>1149.833878295369</v>
+        <v>1133.374880360351</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>1770.231306037952</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>2749.983578264599</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>3629.948228594053</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4343.303316041</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,7 +6069,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6081,31 +6081,31 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282341</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.4168978689405</v>
+        <v>705.517445238747</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1594.531980946615</v>
+        <v>1335.948040110534</v>
       </c>
       <c r="V25" t="n">
-        <v>1339.847492740728</v>
+        <v>1335.948040110534</v>
       </c>
       <c r="W25" t="n">
-        <v>1339.847492740728</v>
+        <v>1335.948040110534</v>
       </c>
       <c r="X25" t="n">
-        <v>1111.85794184271</v>
+        <v>1107.958489212517</v>
       </c>
       <c r="Y25" t="n">
-        <v>891.0653626991802</v>
+        <v>887.1659100689867</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2016.310259422546</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N26" t="n">
-        <v>2996.062531649192</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O26" t="n">
-        <v>3499.035002528529</v>
+        <v>3962.897130029547</v>
       </c>
       <c r="P26" t="n">
-        <v>4212.390089975475</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416715</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160446</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819757</v>
+        <v>145.437078681976</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K28" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6403,7 +6403,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q28" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R28" t="n">
         <v>2286.005723829558</v>
@@ -6412,22 +6412,22 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T28" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U28" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X28" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036714</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>1897.676284104189</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>2877.428556330835</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215063</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416727</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774103</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430905</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932535</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160457</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H31" t="n">
         <v>145.4370786819757</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6640,13 +6640,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q31" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R31" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T31" t="n">
         <v>1967.452490122057</v>
@@ -6655,16 +6655,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849074</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036727</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>750.1800661608922</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814247</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644075</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870722</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,40 +6777,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D34" t="n">
         <v>564.3616113774093</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F34" t="n">
         <v>364.4578361932524</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,7 +6877,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
@@ -6886,7 +6886,7 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U34" t="n">
         <v>1725.799256195774</v>
@@ -6917,13 +6917,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2536.153662641309</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3515.905934867956</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4018.878405747293</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7017,7 +7017,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7026,13 +7026,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215054</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H37" t="n">
         <v>145.4370786819758</v>
@@ -7117,28 +7117,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V37" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7169,40 +7169,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1971.087962216427</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M38" t="n">
-        <v>2949.638265046255</v>
+        <v>2055.398642844496</v>
       </c>
       <c r="N38" t="n">
-        <v>3496.417082105037</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O38" t="n">
-        <v>3999.389552984374</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604875</v>
@@ -7227,64 +7227,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490194</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,16 +7351,16 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123955</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604456</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U40" t="n">
         <v>1725.799256195774</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7412,25 +7412,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427193</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
         <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867998</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,40 +7488,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7600,7 +7600,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7637,34 +7637,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074201</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427198</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196075</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M44" t="n">
-        <v>2782.232616025904</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>3329.011433084686</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>3831.983903964024</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7725,34 +7725,34 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7786,13 +7786,13 @@
         <v>667.028617841672</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7807,22 +7807,22 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
         <v>2328.386548123957</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036721</v>
+        <v>922.713999703672</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>353.7642348290873</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2174916798473</v>
+        <v>136.2499899971294</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>116.5656919961557</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,22 +9407,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>354.4836849406623</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9653,10 +9653,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>128.7323010770072</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>48.50256772349331</v>
       </c>
       <c r="Q26" t="n">
-        <v>195.2514630883912</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M29" t="n">
-        <v>297.8289162490798</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>133.2530576400263</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,22 +10592,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>57.67224444723854</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>132.9990175570134</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>77.35795430877209</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13798426930839</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>258.6211785616931</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>180.7381496078601</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>183.395221919177</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>192.0393770442055</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,16 +22711,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -22747,31 +22747,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>30.12632277941593</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983547</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>26.63094880313218</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>274.444734493984</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10.96033872540643</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>237.2830915967886</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>62.27884386154803</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>236.023131718425</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>6.197398228639912</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>169.1803464387165</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>236.4995698453218</v>
+        <v>170.2704937490432</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53560.0014606698</v>
+        <v>53560.00146066981</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.13273982123</v>
+      </c>
+      <c r="D2" t="n">
         <v>61578.13273982122</v>
       </c>
-      <c r="D2" t="n">
-        <v>61578.13273982125</v>
-      </c>
       <c r="E2" t="n">
-        <v>59562.2680330475</v>
+        <v>59562.26803304747</v>
       </c>
       <c r="F2" t="n">
+        <v>59562.26803304747</v>
+      </c>
+      <c r="G2" t="n">
         <v>59562.26803304748</v>
       </c>
-      <c r="G2" t="n">
-        <v>59562.2680330475</v>
-      </c>
       <c r="H2" t="n">
-        <v>59562.26803304749</v>
+        <v>59562.26803304748</v>
       </c>
       <c r="I2" t="n">
         <v>59562.26803304748</v>
@@ -26338,22 +26338,22 @@
         <v>61578.13273982117</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982116</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982117</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="M2" t="n">
+        <v>61578.13273982119</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61578.13273982115</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61578.13273982119</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982122</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982121</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982118</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982119</v>
       </c>
     </row>
     <row r="3">
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487402</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,25 +26427,25 @@
         <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
+        <v>33605.65329740899</v>
+      </c>
+      <c r="K4" t="n">
         <v>33605.65329740898</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>33605.65329740899</v>
-      </c>
-      <c r="L4" t="n">
-        <v>33605.65329740901</v>
       </c>
       <c r="M4" t="n">
         <v>33605.65329740899</v>
@@ -26454,10 +26454,10 @@
         <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740902</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26482,13 +26482,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>100332.6710141021</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-741595.8381181051</v>
+        <v>-741863.1091607434</v>
       </c>
       <c r="C6" t="n">
         <v>-204629.6321807162</v>
@@ -26528,40 +26528,40 @@
         <v>-204629.6321807162</v>
       </c>
       <c r="E6" t="n">
-        <v>-782347.1565332627</v>
+        <v>-782414.3520234885</v>
       </c>
       <c r="F6" t="n">
-        <v>-54969.74253985611</v>
+        <v>-55036.93803008188</v>
       </c>
       <c r="G6" t="n">
-        <v>-54969.74253985608</v>
+        <v>-55036.93803008186</v>
       </c>
       <c r="H6" t="n">
-        <v>-54969.74253985609</v>
+        <v>-55036.93803008191</v>
       </c>
       <c r="I6" t="n">
-        <v>-54969.7425398561</v>
+        <v>-55036.9380300819</v>
       </c>
       <c r="J6" t="n">
         <v>-286363.5200591569</v>
       </c>
       <c r="K6" t="n">
-        <v>-72360.19157168994</v>
+        <v>-72360.19157168991</v>
       </c>
       <c r="L6" t="n">
-        <v>-72360.19157168995</v>
+        <v>-72360.19157168991</v>
       </c>
       <c r="M6" t="n">
         <v>-202002.5064106347</v>
       </c>
       <c r="N6" t="n">
-        <v>-72360.19157168991</v>
+        <v>-72360.19157168997</v>
       </c>
       <c r="O6" t="n">
-        <v>-109940.300866564</v>
+        <v>-109940.3008665639</v>
       </c>
       <c r="P6" t="n">
-        <v>-72360.19157168982</v>
+        <v>-72360.19157168988</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>40.82898780182114</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.5388692007419</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>56.2595003824849</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>105.5045322652425</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>133.6123730510008</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>51.36731581838995</v>
       </c>
       <c r="U7" t="n">
-        <v>62.45749068994752</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>185.0495787420642</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>214.7665585234225</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>64.93143225740843</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>79.06260926988898</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.074344903334076e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.639429415770185e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,7 +35410,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923319</v>
@@ -35419,10 +35419,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0660702419985</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908542</v>
@@ -35431,7 +35431,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>634.4087782352478</v>
+        <v>473.4412765525299</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35659,16 +35659,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554007</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230595</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>668.8675274090674</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509648</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222489</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>893.4048007708889</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>379.5266058807267</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>447.2645539428652</v>
       </c>
       <c r="Q26" t="n">
-        <v>446.0457678921107</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M29" t="n">
-        <v>836.7500320793066</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
@@ -36850,10 +36850,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>470.4443441954267</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,7 +37233,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>456.4342306666102</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>671.9201333872402</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>476.1199405281437</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>648.4398196822196</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>657.3831647810649</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427828</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230595</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>579.5001358272322</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
@@ -38187,7 +38187,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
